--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA6BA5-C893-4818-AE46-8B78DF0802A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE0727-0578-4722-A48E-EAF502EF28D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原本!$A$1:$J$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -104,46 +104,12 @@
     <t>☆設計書レビュー項目書・結果書</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>設計書名：要件定義書</t>
-    <rPh sb="0" eb="3">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書名：クラス図</t>
-    <rPh sb="8" eb="9">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書名：シーケンス図</t>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計書名：データベース設計書</t>
-    <rPh sb="11" eb="14">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,12 +132,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -218,11 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,20 +204,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -546,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B6" sqref="B6:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,11 +516,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -608,7 +551,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="1"/>
       <c r="K6" s="3"/>
     </row>
@@ -621,7 +564,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="K7" s="3"/>
     </row>
@@ -638,202 +581,239 @@
       <c r="I8" s="1"/>
       <c r="K8" s="3"/>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="1"/>
+    </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="26" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="11"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C28"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C30"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H11 H14 H17 H20 H23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE0727-0578-4722-A48E-EAF502EF28D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F590E-FBAD-4CA5-AB15-E96B41482FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -102,6 +102,40 @@
   </si>
   <si>
     <t>☆設計書レビュー項目書・結果書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_idをかぶらないようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集のときに元のデータに入っている日時が出ない</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードにハッシュつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永井</t>
+    <rPh sb="0" eb="2">
+      <t>ナガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +531,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,22 +580,30 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="8"/>
       <c r="I6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="8"/>
@@ -572,9 +614,13 @@
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F590E-FBAD-4CA5-AB15-E96B41482FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578639B-8943-4E18-A8C0-589343FFB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -135,6 +135,21 @@
     <t>永井</t>
     <rPh sb="0" eb="2">
       <t>ナガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_idにuniqueを設定、重複メッセージは出ない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つけた,データベースのpasswordは64文字、SHA-256</t>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +257,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,19 +594,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9">
+        <v>45188</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="1"/>
       <c r="K6" s="3"/>
@@ -600,29 +622,37 @@
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="9">
+        <v>45188</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="9">
+        <v>45188</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="3"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578639B-8943-4E18-A8C0-589343FFB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -150,6 +150,85 @@
     <t>つけた,データベースのpasswordは64文字、SHA-256</t>
     <rPh sb="22" eb="24">
       <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人ページで削除したときに画面が遷移する、削除の場合はアラートを出してページは変わらないほうがいいかな</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了しましたの画面が質素</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贈り物頂き物を選択しなくても登録できてしまう</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モノイタダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人ページで品物を削除したときに、品物一覧に遷移してしまう</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シナモノイチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,7 +628,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,13 +736,17 @@
       <c r="I8" s="1"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="8"/>
@@ -673,33 +756,45 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="8"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\レビュー仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F802907A-8A86-4091-803E-765A1A58546F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -229,6 +229,110 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿、品物の入力時に取り消しボタンを入れたい</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日で未来の設定が可能なこと</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの名前を表示したい</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うるう年生まれに対してのカレンダー設定</t>
+    <rPh sb="3" eb="4">
+      <t>ドシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finish,error画面にmainpageとさっきの画面に戻るボタンをつけたい</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズが変わっても見やすいように（モバイルも）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除に確認ページがいるのではないか</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,8 +731,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,12 +847,16 @@
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="9">
+        <v>45195</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="1"/>
     </row>
@@ -800,13 +908,17 @@
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="8"/>
@@ -816,9 +928,13 @@
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -829,45 +945,61 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="8"/>
@@ -877,9 +1009,13 @@
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="8"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F802907A-8A86-4091-803E-765A1A58546F}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD1B746-7A3E-451B-A997-34E06E7ED3A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -333,6 +333,108 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsをつけてアラートを出すように</t>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つけた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿登録のリセットボタンを押しても、画像表示が維持される</t>
+    <rPh sb="0" eb="4">
+      <t>メイボトウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｊｓの分岐を増やした</t>
+    <rPh sb="3" eb="5">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加原</t>
+    <rPh sb="0" eb="2">
+      <t>カハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人ページに戻るようにした</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsで確認するアラートを</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物を「去年のもの」など指定して表示できるように</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件分岐を作り、うるう年でない年は2/28日に誕生日を表示した</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ドシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,6 +563,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,8 +837,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,12 +989,16 @@
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="9">
+        <v>45197</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -899,12 +1009,16 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="9">
+        <v>45197</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
     </row>
@@ -915,12 +1029,16 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9">
+        <v>45197</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="1"/>
     </row>
@@ -933,7 +1051,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -950,7 +1068,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -964,12 +1082,16 @@
       <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="9">
+        <v>45197</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
     </row>
@@ -982,10 +1104,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -998,10 +1120,10 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
     </row>
@@ -1012,34 +1134,50 @@
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="9">
+        <v>45197</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="9">
+        <v>45197</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="8"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-M15BVIK\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD1B746-7A3E-451B-A997-34E06E7ED3A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3AD35-3F31-40E0-BEB2-BE5750AABB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -435,6 +435,13 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒田</t>
+    <rPh sb="0" eb="2">
+      <t>クロダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -837,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1053,8 +1060,12 @@
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45201</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="K14" s="3"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-M15BVIK\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3AD35-3F31-40E0-BEB2-BE5750AABB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E1B06-7CA1-46B4-AB2F-F4977DE06C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -442,6 +442,26 @@
     <t>黒田</t>
     <rPh sb="0" eb="2">
       <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森岡</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿編集登録ができない</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -844,8 +864,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,8 +1209,12 @@
       <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="9">
+        <v>45201</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="K21" s="3"/>
@@ -1199,9 +1223,13 @@
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="8"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD1B746-7A3E-451B-A997-34E06E7ED3A5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3DBE82-603C-4BD2-AFE5-0CA633CCAB33}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="690" yWindow="345" windowWidth="12780" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -566,6 +566,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -837,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,12 +977,16 @@
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="9">
+        <v>45195</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
     </row>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-M15BVIK\Desktop\team_forest\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E1B06-7CA1-46B4-AB2F-F4977DE06C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0516BD-9F7E-49FD-ACE3-EE155BC4110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -864,8 +864,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,7 +1137,9 @@
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3DBE82-603C-4BD2-AFE5-0CA633CCAB33}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD079ADF-54AF-4BCC-BF02-BB6DEB55BA9A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="690" yWindow="345" windowWidth="12780" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -436,6 +436,17 @@
     <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒田</t>
+    <rPh sb="0" eb="2">
+      <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おｋ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,6 +581,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -842,7 +857,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1182,12 +1197,18 @@
       <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="9">
+        <v>45201</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="K21" s="3"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD079ADF-54AF-4BCC-BF02-BB6DEB55BA9A}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8EA0144-9FB4-4390-A5BD-932A88C448BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -447,6 +447,93 @@
   </si>
   <si>
     <t>おｋ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xｓsの対策</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日以降は設定できないように</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーに追加した</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある程度は</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森岡</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵文字などを入力するとエラー画面に</t>
+    <rPh sb="0" eb="3">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit時にチェック</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーのサーブレット名の数字がいらない</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ファイルに題名や役割を記入する</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キニュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -585,6 +672,14 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -857,7 +952,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,12 +1167,18 @@
       <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45201</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="K14" s="3"/>
@@ -1089,12 +1190,16 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="9">
+        <v>45202</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
     </row>
@@ -1141,12 +1246,16 @@
       <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9">
+        <v>45202</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
     </row>
@@ -1204,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G21" s="9">
         <v>45201</v>
@@ -1217,9 +1326,13 @@
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="8"/>
@@ -1230,22 +1343,36 @@
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="9">
+        <v>45202</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>19</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="8"/>
@@ -1253,23 +1380,56 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C25"/>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C27"/>
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C28"/>
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C29"/>
@@ -1287,7 +1447,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H11 H14 H17 H20 H23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H11 H14 H17 H20 H23 H25 H27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8EA0144-9FB4-4390-A5BD-932A88C448BB}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DDCE9B-3106-41BE-9BA8-F4890A0ABD00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -533,6 +533,64 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo編集のファイル選択で、元の画像が表示され続ける</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物編集のプルダウンが思うように選択できない</t>
+    <rPh sb="0" eb="4">
+      <t>シナモノヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザの戻るボタン押してください</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの画面にはセッションが切れていても入れてしまう</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -680,6 +738,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -951,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,12 +1292,16 @@
       <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9">
+        <v>45203</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -1395,54 +1461,102 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>21</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>23</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C29"/>
+      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C30"/>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="1"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C31"/>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C32"/>
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20DDCE9B-3106-41BE-9BA8-F4890A0ABD00}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B59D92D-AAAF-4A29-B271-95A6B78D78DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -591,6 +591,16 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入済み</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,6 +752,10 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1014,7 +1028,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1435,12 +1449,18 @@
       <c r="C24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="9">
+        <v>45203</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
@@ -1452,12 +1472,16 @@
       <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="9">
+        <v>45203</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B59D92D-AAAF-4A29-B271-95A6B78D78DC}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2EFEE4D-C7AD-41E1-8221-E414F167ED73}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -601,6 +601,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,6 +763,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1027,7 +1038,7 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1409,12 +1420,16 @@
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="9">
+        <v>45204</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="K22" s="3"/>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\レビュー仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{08313C42-CBB1-4098-A483-BA0392189995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F802907A-8A86-4091-803E-765A1A58546F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="13350" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -334,6 +334,289 @@
     <rPh sb="3" eb="5">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsをつけてアラートを出すように</t>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つけた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿登録のリセットボタンを押しても、画像表示が維持される</t>
+    <rPh sb="0" eb="4">
+      <t>メイボトウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｊｓの分岐を増やした</t>
+    <rPh sb="3" eb="5">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加原</t>
+    <rPh sb="0" eb="2">
+      <t>カハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人ページに戻るようにした</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsで確認するアラートを</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物を「去年のもの」など指定して表示できるように</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件分岐を作り、うるう年でない年は2/28日に誕生日を表示した</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ドシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒田</t>
+    <rPh sb="0" eb="2">
+      <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おｋ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xｓsの対策</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日以降は設定できないように</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーに追加した</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある程度は</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森岡</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵文字などを入力するとエラー画面に</t>
+    <rPh sb="0" eb="3">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit時にチェック</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーのサーブレット名の数字がいらない</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ファイルに題名や役割を記入する</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo編集のファイル選択で、元の画像が表示され続ける</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物編集のプルダウンが思うように選択できない</t>
+    <rPh sb="0" eb="4">
+      <t>シナモノヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザの戻るボタン押してください</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーの画面にはセッションが切れていても入れてしまう</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入済み</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,6 +744,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,12 +1182,16 @@
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="9">
+        <v>45195</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="1"/>
     </row>
@@ -883,12 +1202,16 @@
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="9">
+        <v>45197</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -899,12 +1222,16 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="9">
+        <v>45197</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
     </row>
@@ -915,12 +1242,16 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9">
+        <v>45197</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="1"/>
     </row>
@@ -931,12 +1262,18 @@
       <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45201</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="K14" s="3"/>
@@ -948,12 +1285,16 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="9">
+        <v>45202</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
     </row>
@@ -964,12 +1305,16 @@
       <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="9">
+        <v>45197</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
     </row>
@@ -980,12 +1325,16 @@
       <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="9">
+        <v>45203</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -996,12 +1345,16 @@
       <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="9">
+        <v>45202</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
     </row>
@@ -1012,36 +1365,58 @@
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="9">
+        <v>45197</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="9">
+        <v>45197</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="9">
+        <v>45201</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="K21" s="3"/>
@@ -1050,11 +1425,19 @@
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="9">
+        <v>45204</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="K22" s="3"/>
@@ -1063,64 +1446,173 @@
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="9">
+        <v>45202</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>19</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="9">
+        <v>45203</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C28"/>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9">
+        <v>45203</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C29"/>
+      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C30"/>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="1"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C31"/>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C32"/>
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H11 H14 H17 H20 H23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H11 H14 H17 H20 H23 H25 H27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\レビュー仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32073A0-6B26-4685-8DFB-FD3828042210}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="13350" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -612,11 +612,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaaaaaaaa</t>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1046,8 +1049,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1108,9 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="9">
         <v>45188</v>
       </c>
@@ -1126,7 +1131,9 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="9">
         <v>45188</v>
       </c>
@@ -1147,7 +1154,9 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="9">
         <v>45188</v>
       </c>
@@ -1168,7 +1177,9 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="9">
         <v>45195</v>
       </c>
@@ -1188,7 +1199,9 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="9">
         <v>45195</v>
       </c>
@@ -1208,7 +1221,9 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="9">
         <v>45197</v>
       </c>
@@ -1228,7 +1243,9 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="9">
         <v>45197</v>
       </c>
@@ -1248,7 +1265,9 @@
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="9">
         <v>45197</v>
       </c>
@@ -1291,7 +1310,9 @@
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="9">
         <v>45202</v>
       </c>
@@ -1311,7 +1332,9 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="9">
         <v>45197</v>
       </c>
@@ -1331,7 +1354,9 @@
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="9">
         <v>45203</v>
       </c>
@@ -1351,7 +1376,9 @@
       <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="9">
         <v>45202</v>
       </c>
@@ -1371,7 +1398,9 @@
       <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="9">
         <v>45197</v>
       </c>
@@ -1391,7 +1420,9 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="9">
         <v>45197</v>
       </c>
@@ -1434,7 +1465,9 @@
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G22" s="9">
         <v>45204</v>
       </c>
@@ -1501,7 +1534,9 @@
       <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G25" s="9">
         <v>45203</v>
       </c>
@@ -1521,10 +1556,10 @@
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="9">
+        <v>45204</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
     </row>
@@ -1535,12 +1570,18 @@
       <c r="C27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45205</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -1551,12 +1592,16 @@
       <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="9">
+        <v>45206</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
     </row>

--- a/document/レビュー仕様書/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書/グループ内レビュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書 - コピー/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32073A0-6B26-4685-8DFB-FD3828042210}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814CAD8E-B57B-4588-8CF2-767F2D3853C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -612,13 +612,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ok</t>
+    <t>カレンダーの小さい画像が微妙</t>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP画面の文字が見にくい</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像と文字を変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -668,7 +713,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -691,6 +736,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +785,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,6 +840,14 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1049,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1550,16 +1620,12 @@
       <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="9">
-        <v>45204</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
     </row>
@@ -1571,16 +1637,16 @@
         <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="9">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1593,14 +1659,16 @@
         <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="9">
-        <v>45206</v>
+        <v>45209</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
@@ -1609,11 +1677,21 @@
       <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="9">
+        <v>45209</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
     </row>
@@ -1621,11 +1699,21 @@
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="9">
+        <v>45209</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="1"/>
       <c r="K30" s="3"/>
